--- a/Documents/BOM.xlsx
+++ b/Documents/BOM.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colten\Dropbox\_SCHOOL\ECE_412_Capstone1\sense_platform\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="135" windowWidth="20730" windowHeight="9465"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -78,9 +83,6 @@
     <t>Micro USB, type B, male</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Accelerometer</t>
   </si>
   <si>
@@ -271,6 +273,9 @@
   </si>
   <si>
     <t>Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total: </t>
   </si>
 </sst>
 </file>
@@ -313,7 +318,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -336,12 +341,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -351,18 +369,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -374,6 +396,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -422,7 +447,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,7 +482,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -669,7 +694,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,15 +703,15 @@
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="5" max="5" width="59" customWidth="1"/>
     <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="75.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -706,46 +731,46 @@
         <v>3</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>32</v>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="8">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="10">
+      <c r="F2" s="7">
+        <v>6</v>
+      </c>
+      <c r="G2" s="9">
         <v>7.55</v>
       </c>
-      <c r="I2" s="10">
-        <f t="shared" ref="I2:I16" si="0">F2*H2</f>
+      <c r="H2" s="9">
+        <f>F2*G2</f>
         <v>45.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="43.15" x14ac:dyDescent="0.3">
+      <c r="I2" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -761,18 +786,18 @@
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="7">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5">
+        <v>9.01</v>
+      </c>
+      <c r="H3" s="5">
+        <f>F3*G3</f>
+        <v>54.06</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="H3" s="5">
-        <v>9.01</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" si="0"/>
-        <v>54.06</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -791,56 +816,56 @@
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8">
-        <v>6</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="7">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1.27</v>
+      </c>
+      <c r="H4" s="5">
+        <f>F4*G4</f>
+        <v>7.62</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1.27</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="0"/>
-        <v>7.62</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="7">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1.08</v>
+      </c>
+      <c r="H5" s="5">
+        <f>F5*G5</f>
+        <v>6.48</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="8">
-        <v>6</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1.08</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="0"/>
-        <v>6.48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -849,58 +874,58 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="H6" s="5">
+        <f>F6*G6</f>
+        <v>5.82</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="8">
-        <v>6</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="0"/>
-        <v>5.82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="H7" s="5">
+        <f>F7*G7</f>
+        <v>5.46</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="F7" s="8">
-        <v>6</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="0"/>
-        <v>5.46</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -909,313 +934,313 @@
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1.46</v>
+      </c>
+      <c r="H8" s="5">
+        <f>F8*G8</f>
+        <v>8.76</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" s="8">
-        <v>6</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1.46</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="0"/>
-        <v>8.76</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="8">
-        <v>6</v>
-      </c>
-      <c r="G9" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="F9" s="7">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3.95</v>
+      </c>
       <c r="H9" s="5">
-        <v>3.95</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="0"/>
+        <f>F9*G9</f>
         <v>23.700000000000003</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="8">
-        <v>6</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="F10" s="7">
+        <v>6</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.89</v>
       </c>
       <c r="H10" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="0"/>
+        <f>F10*G10</f>
         <v>5.34</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I10" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2">
         <v>100</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>51</v>
+      <c r="G11" s="5">
+        <v>0.219</v>
       </c>
       <c r="H11" s="5">
-        <v>0.219</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0.219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+        <f>G11*F11</f>
+        <v>21.9</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="H12" s="5">
+        <f>F12*G12</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.75275999999999998</v>
+      </c>
+      <c r="H13" s="5">
+        <f>F13*G13</f>
+        <v>4.5165600000000001</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="2">
-        <v>6</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="2">
+        <v>6</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1.33</v>
+      </c>
+      <c r="H14" s="5">
+        <f>F14*G14</f>
+        <v>7.98</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="2">
-        <v>6</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0.75275999999999998</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="0"/>
-        <v>4.5165600000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="2">
-        <v>6</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1.33</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="0"/>
-        <v>7.98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>72</v>
+        <v>21</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="F15" s="2">
         <v>18</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>70</v>
+      <c r="G15" s="5">
+        <v>0.35</v>
       </c>
       <c r="H15" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="0"/>
+        <f>F15*G15</f>
         <v>6.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I15" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>78</v>
+        <v>31</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="F16" s="2">
         <v>6</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>77</v>
+      <c r="G16" s="5">
+        <v>0.27</v>
       </c>
       <c r="H16" s="5">
-        <v>0.27</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="0"/>
+        <f>F16*G16</f>
         <v>1.62</v>
       </c>
+      <c r="I16" s="12" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="7">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15">
+        <f>SUM(G2:G16)</f>
+        <v>30.61176</v>
+      </c>
+      <c r="H17" s="16">
         <f>SUM(H2:H16)</f>
-        <v>30.61176</v>
-      </c>
-      <c r="I17" s="5">
-        <f>SUM(I2:I16)</f>
-        <v>186.77555999999998</v>
-      </c>
+        <v>208.45656</v>
+      </c>
+      <c r="I17" s="14"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="13"/>
+      <c r="A19" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G21" s="1"/>
+      <c r="I21" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A17:G17"/>
+  <mergeCells count="1">
     <mergeCell ref="A19:B19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="I4" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3" display="http://www.mouser.com/hiroseconnector/"/>
     <hyperlink ref="C7" r:id="rId4" display="http://digikey.com/Suppliers/us/Semtech.page?lang=en"/>
-    <hyperlink ref="G9" r:id="rId5"/>
-    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="I9" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
     <hyperlink ref="C11" r:id="rId7" display="http://www.mouser.com/vishaysemiconductors/"/>
     <hyperlink ref="C12" r:id="rId8" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
     <hyperlink ref="C13" r:id="rId9" display="http://digikey.com/Suppliers/us/Elna-America.page?lang=en"/>
     <hyperlink ref="C14" r:id="rId10" display="http://digikey.com/Suppliers/us/C-and-K-Components.page?lang=en"/>
     <hyperlink ref="C2" r:id="rId11" display="http://digikey.com/Suppliers/us/Analog-Devices.page?lang=en"/>
-    <hyperlink ref="G16" r:id="rId12"/>
-    <hyperlink ref="G15" r:id="rId13"/>
-    <hyperlink ref="G11" r:id="rId14"/>
-    <hyperlink ref="G2" r:id="rId15"/>
+    <hyperlink ref="I16" r:id="rId12"/>
+    <hyperlink ref="I15" r:id="rId13"/>
+    <hyperlink ref="I11" r:id="rId14"/>
+    <hyperlink ref="I2" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId16"/>

--- a/Documents/BOM.xlsx
+++ b/Documents/BOM.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colten\Dropbox\_SCHOOL\ECE_412_Capstone1\sense_platform\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="135" windowWidth="20730" windowHeight="9465"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
   <si>
     <t>Part #</t>
   </si>
@@ -35,12 +30,12 @@
     <t>Qty</t>
   </si>
   <si>
+    <t>Picture</t>
+  </si>
+  <si>
     <t>Unit Cost</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>STM32F205RCT6</t>
   </si>
   <si>
@@ -68,6 +63,15 @@
     <t xml:space="preserve">Texas Instrument </t>
   </si>
   <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSH Park </t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>http://www.mouser.com/ProductDetail/Hirose-Connector/ZX62R-B-5P/?qs=XQjbzJWzFPUqfCc9Mb2Taw%3D%3D</t>
   </si>
   <si>
@@ -83,6 +87,24 @@
     <t>Micro USB, type B, male</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>VOC sensor for air-quality monitor</t>
+  </si>
+  <si>
+    <t>http://www.aliexpress.com/item/5pcs-lot-FIGARO-air-quality-VOC-gas-sensor-TGS2602/1956331481.html</t>
+  </si>
+  <si>
+    <t>China(Mainland)</t>
+  </si>
+  <si>
+    <t>AliExpress</t>
+  </si>
+  <si>
+    <t>VOC Sensor</t>
+  </si>
+  <si>
     <t>Accelerometer</t>
   </si>
   <si>
@@ -230,9 +252,6 @@
     <t>Sliding Switch</t>
   </si>
   <si>
-    <t>https://www.sparkfun.com/products/97</t>
-  </si>
-  <si>
     <t>COM-00097</t>
   </si>
   <si>
@@ -266,26 +285,105 @@
     <t>TC33X-2-104E</t>
   </si>
   <si>
+    <t>TGS2602*</t>
+  </si>
+  <si>
     <t>P4SMA7.5CA-E3/5A**</t>
   </si>
   <si>
-    <t>* Cell H12 indicates the price for 100 units.</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total: </t>
+    <t>JTAG-CortexM3</t>
+  </si>
+  <si>
+    <t>IC USB SERIAL BASIC UART 16SSOP</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0/768-1135-1-ND</t>
+  </si>
+  <si>
+    <t>FT230XS-R</t>
+  </si>
+  <si>
+    <t>FTDI</t>
+  </si>
+  <si>
+    <t>USB to UART</t>
+  </si>
+  <si>
+    <t>Red LED</t>
+  </si>
+  <si>
+    <t>Green LED</t>
+  </si>
+  <si>
+    <t>Blue LED</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/20021221-00010C4LF/609-3700-1-ND/2209154</t>
+  </si>
+  <si>
+    <t>CONN HEADER 10POS DUAL SHRD SMD</t>
+  </si>
+  <si>
+    <t>SWD HEADER</t>
+  </si>
+  <si>
+    <t>FCI</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0/846-1029-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SML-M13PTT86</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0/846-1030-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SML-M13UTT86</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0/754-1938-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> APT2012LVBC/D</t>
+  </si>
+  <si>
+    <t>Kingbright</t>
+  </si>
+  <si>
+    <t>LED 2.0X1.2MM BLUE SMD</t>
+  </si>
+  <si>
+    <t>LED COMPACT REFL GRN 560NM 0805</t>
+  </si>
+  <si>
+    <t>Rohm Semiconductor</t>
+  </si>
+  <si>
+    <t>LED COMPACT REFL RED 620NM 0805</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8720</t>
+  </si>
+  <si>
+    <t>Total Cost For 10</t>
+  </si>
+  <si>
+    <t>Total Cost For 100</t>
+  </si>
+  <si>
+    <t>Total Cost For 1000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +407,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -318,7 +428,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -341,25 +451,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -368,23 +465,26 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -396,9 +496,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -447,7 +544,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,7 +579,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -691,559 +788,1121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="75.85546875" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="I1" s="7">
+        <v>10</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="7">
+        <v>100</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="7">
+        <v>1000</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5">
+        <v>9.01</v>
+      </c>
+      <c r="I2" s="5">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="J2" s="5">
+        <f>F2*I1*I2</f>
+        <v>81.199999999999989</v>
+      </c>
+      <c r="K2" s="5">
+        <v>6.66</v>
+      </c>
+      <c r="L2" s="5">
+        <f>F2*K1*K2</f>
+        <v>666</v>
+      </c>
+      <c r="M2" s="13">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="N2" s="5">
+        <f>F2*M1*M2</f>
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="7">
-        <v>6</v>
-      </c>
-      <c r="G2" s="9">
-        <v>7.55</v>
-      </c>
-      <c r="H2" s="9">
-        <f>F2*G2</f>
-        <v>45.3</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="7">
-        <v>6</v>
-      </c>
-      <c r="G3" s="5">
-        <v>9.01</v>
+        <v>19</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H3" s="5">
-        <f>F3*G3</f>
-        <v>54.06</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>1.27</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1.01</v>
+      </c>
+      <c r="J3" s="5">
+        <f>F3*I1*I3</f>
+        <v>20.2</v>
+      </c>
+      <c r="K3" s="14">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="L3" s="14">
+        <f>F3*K1*K3</f>
+        <v>193.6</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="N3" s="5">
+        <f>F3*M1*M3</f>
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="7">
-        <v>6</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1.27</v>
+        <v>35</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H4" s="5">
-        <f>F4*G4</f>
-        <v>7.62</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>1.08</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="J4" s="14">
+        <f>F4*I1*I4</f>
+        <v>9.0400000000000009</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="L4" s="5">
+        <f>F4*K1*K4</f>
+        <v>80</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="N4" s="5">
+        <f>F4*M4*M1</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="7">
-        <v>6</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1.08</v>
+        <v>37</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="H5" s="5">
-        <f>F5*G5</f>
-        <v>6.48</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.97</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.749</v>
+      </c>
+      <c r="J5" s="5">
+        <f>F5*I1*I5</f>
+        <v>7.49</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="L5" s="5">
+        <f>F5*K1*K5</f>
+        <v>48.4</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="N5" s="5">
+        <f>F5*M1*M5</f>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="J6" s="5">
+        <f>F6*I1*I6</f>
+        <v>8.0400000000000009</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.63490000000000002</v>
+      </c>
+      <c r="L6" s="5">
+        <f>F6*K1*K6</f>
+        <v>63.49</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.39051000000000002</v>
+      </c>
+      <c r="N6" s="5">
+        <f>F6*M1*M6</f>
+        <v>390.51000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1.46</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1.29</v>
+      </c>
+      <c r="J7" s="5">
+        <f>F7*I1*I7</f>
+        <v>12.9</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="L7" s="5">
+        <f>F7*K1*K7</f>
+        <v>102</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="N7" s="5">
+        <f>F7*M1*M7</f>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3.95</v>
+      </c>
+      <c r="I8" s="5">
+        <v>3.95</v>
+      </c>
+      <c r="J8" s="5">
+        <f>F8*I1*I8</f>
+        <v>39.5</v>
+      </c>
+      <c r="K8" s="5">
+        <v>3.56</v>
+      </c>
+      <c r="L8" s="5">
+        <f>F8*K1*K8</f>
+        <v>356</v>
+      </c>
+      <c r="M8" s="5">
+        <v>3.56</v>
+      </c>
+      <c r="N8" s="5">
+        <f>F8*M1*M8</f>
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7">
-        <v>6</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="H6" s="5">
-        <f>F6*G6</f>
-        <v>5.82</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="7">
-        <v>6</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="H7" s="5">
-        <f>F7*G7</f>
-        <v>5.46</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="7">
-        <v>6</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1.46</v>
-      </c>
-      <c r="H8" s="5">
-        <f>F8*G8</f>
-        <v>8.76</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="7">
-        <v>6</v>
-      </c>
-      <c r="G9" s="5">
-        <v>3.95</v>
+        <v>58</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="H9" s="5">
-        <f>F9*G9</f>
-        <v>23.700000000000003</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.89</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="J9" s="5">
+        <f>F9*I1*I9</f>
+        <v>7.1899999999999995</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="L9" s="5">
+        <f>F9*K1*K9</f>
+        <v>55.300000000000004</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="N9" s="5">
+        <f>F9*M1*M9</f>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>90</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="7">
-        <v>6</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.89</v>
+        <v>60</v>
+      </c>
+      <c r="F10" s="2">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="H10" s="5">
-        <f>F10*G10</f>
-        <v>5.34</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.219</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="J10" s="5">
+        <f>F10*I1*I10</f>
+        <v>45.629999999999995</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.218</v>
+      </c>
+      <c r="L10" s="5">
+        <f>F10*K1*K10</f>
+        <v>283.39999999999998</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="N10" s="5">
+        <f>F10*M1*M10</f>
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="J11" s="5">
+        <f>F11*I1*I11</f>
+        <v>4.6899999999999995</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.32240000000000002</v>
+      </c>
+      <c r="L11" s="5">
+        <f>F11*K1*K11</f>
+        <v>32.24</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.16521</v>
+      </c>
+      <c r="N11" s="5">
+        <f>F11*M1*M11</f>
+        <v>165.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.75275999999999998</v>
+      </c>
+      <c r="I12" s="15">
+        <v>1.8959999999999999</v>
+      </c>
+      <c r="J12" s="15">
+        <f>F12*I1*I12</f>
+        <v>18.96</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1.6728000000000001</v>
+      </c>
+      <c r="L12" s="5">
+        <f>F12*K1*K12</f>
+        <v>167.28</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0.75275999999999998</v>
+      </c>
+      <c r="N12" s="5">
+        <f>F12*M1*M12</f>
+        <v>752.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1.33</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1.272</v>
+      </c>
+      <c r="J13" s="5">
+        <f>F13*I1*I13</f>
+        <v>12.72</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1.0604</v>
+      </c>
+      <c r="L13" s="5">
+        <f>F13*K1*K13</f>
+        <v>106.04</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.84831999999999996</v>
+      </c>
+      <c r="N13" s="5">
+        <f>F13*M1*M13</f>
+        <v>848.31999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="J14" s="5">
+        <f>F14*I1*I14</f>
+        <v>38</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="L14" s="5">
+        <f>F14*K1*K14</f>
+        <v>344</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="N14" s="5">
+        <f>F14*M1*M14</f>
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.51480000000000004</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="J15" s="5">
+        <f>F15*I1*I15</f>
+        <v>6.15</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.44330000000000003</v>
+      </c>
+      <c r="L15" s="5">
+        <f>F15*K1*K15</f>
+        <v>44.330000000000005</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.33606000000000003</v>
+      </c>
+      <c r="N15" s="5">
+        <f>F15*M1*M15</f>
+        <v>336.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.33679999999999999</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="J16" s="5">
+        <f>F16*I1*I16</f>
+        <v>8.26</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.26779999999999998</v>
+      </c>
+      <c r="L16" s="5">
+        <f>F16*K1*K16</f>
+        <v>53.559999999999995</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0.153</v>
+      </c>
+      <c r="N16" s="5">
+        <f>F16*M1*M16</f>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.496</v>
+      </c>
+      <c r="J17" s="5">
+        <f>F17*I1*I17</f>
+        <v>9.92</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="L17" s="5">
+        <f>F17*K1*K17</f>
+        <v>64.259999999999991</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0.18360000000000001</v>
+      </c>
+      <c r="N17" s="5">
+        <f>F17*M1*M17</f>
+        <v>367.20000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2.04</v>
+      </c>
+      <c r="I18" s="5">
+        <v>2.04</v>
+      </c>
+      <c r="J18" s="5">
+        <f>F18*I1*I18</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="L18" s="5">
+        <f>F18*K1*K18</f>
+        <v>190</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1.4875</v>
+      </c>
+      <c r="N18" s="5">
+        <f>F18*M1*M18</f>
+        <v>1487.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="J19" s="5">
+        <f>F19*I1*I19</f>
+        <v>7</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="L19" s="5">
+        <f>F19*K1*K19</f>
+        <v>60.5</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="N19" s="5">
+        <f>F19*M1*M19</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="6">
+        <v>23.6</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="5">
+        <v>283.2</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="5">
+        <v>2407.1999999999998</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5">
+        <v>23647.200000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="8">
+        <f>SUM(H2:H20)</f>
+        <v>50.737360000000002</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="5">
+        <f>SUM(J2:J20)</f>
+        <v>640.49</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="5">
+        <f>SUM(L2:L20)</f>
+        <v>5317.5999999999995</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="5">
+        <f>SUM(N2:N20)</f>
+        <v>45757.760000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="9">
+        <v>5</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="11">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="2">
-        <v>100</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.219</v>
-      </c>
-      <c r="H11" s="5">
-        <f>G11*F11</f>
-        <v>21.9</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="2">
-        <v>6</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="H12" s="5">
-        <f>F12*G12</f>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="2">
-        <v>6</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0.75275999999999998</v>
-      </c>
-      <c r="H13" s="5">
-        <f>F13*G13</f>
-        <v>4.5165600000000001</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="2">
-        <v>6</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1.33</v>
-      </c>
-      <c r="H14" s="5">
-        <f>F14*G14</f>
-        <v>7.98</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="2">
-        <v>18</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="H15" s="5">
-        <f>F15*G15</f>
-        <v>6.3</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="F29" s="9">
+        <v>5</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="2">
-        <v>6</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0.27</v>
-      </c>
-      <c r="H16" s="5">
-        <f>F16*G16</f>
-        <v>1.62</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15">
-        <f>SUM(G2:G16)</f>
-        <v>30.61176</v>
-      </c>
-      <c r="H17" s="16">
-        <f>SUM(H2:H16)</f>
-        <v>208.45656</v>
-      </c>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I21" s="1"/>
+      <c r="H29" s="11">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A19:B19"/>
+  <mergeCells count="3">
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1"/>
-    <hyperlink ref="I4" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3" display="http://www.mouser.com/hiroseconnector/"/>
-    <hyperlink ref="C7" r:id="rId4" display="http://digikey.com/Suppliers/us/Semtech.page?lang=en"/>
-    <hyperlink ref="I9" r:id="rId5"/>
-    <hyperlink ref="I7" r:id="rId6"/>
-    <hyperlink ref="C11" r:id="rId7" display="http://www.mouser.com/vishaysemiconductors/"/>
-    <hyperlink ref="C12" r:id="rId8" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
-    <hyperlink ref="C13" r:id="rId9" display="http://digikey.com/Suppliers/us/Elna-America.page?lang=en"/>
-    <hyperlink ref="C14" r:id="rId10" display="http://digikey.com/Suppliers/us/C-and-K-Components.page?lang=en"/>
-    <hyperlink ref="C2" r:id="rId11" display="http://digikey.com/Suppliers/us/Analog-Devices.page?lang=en"/>
-    <hyperlink ref="I16" r:id="rId12"/>
-    <hyperlink ref="I15" r:id="rId13"/>
-    <hyperlink ref="I11" r:id="rId14"/>
-    <hyperlink ref="I2" r:id="rId15"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3" display="http://www.mouser.com/hiroseconnector/"/>
+    <hyperlink ref="G27" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://digikey.com/Suppliers/us/Semtech.page?lang=en"/>
+    <hyperlink ref="G8" r:id="rId6"/>
+    <hyperlink ref="G9" r:id="rId7"/>
+    <hyperlink ref="G6" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9" display="http://www.mouser.com/vishaysemiconductors/"/>
+    <hyperlink ref="C11" r:id="rId10" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
+    <hyperlink ref="C12" r:id="rId11" display="http://digikey.com/Suppliers/us/Elna-America.page?lang=en"/>
+    <hyperlink ref="C13" r:id="rId12" display="http://digikey.com/Suppliers/us/C-and-K-Components.page?lang=en"/>
+    <hyperlink ref="C29" r:id="rId13" display="http://digikey.com/Suppliers/us/Analog-Devices.page?lang=en"/>
+    <hyperlink ref="G14" r:id="rId14"/>
+    <hyperlink ref="G10" r:id="rId15"/>
+    <hyperlink ref="G18" r:id="rId16"/>
+    <hyperlink ref="G19" r:id="rId17"/>
+    <hyperlink ref="G16" r:id="rId18"/>
+    <hyperlink ref="G15" r:id="rId19"/>
+    <hyperlink ref="G4" r:id="rId20"/>
+    <hyperlink ref="G5" r:id="rId21"/>
+    <hyperlink ref="G7" r:id="rId22"/>
+    <hyperlink ref="G11" r:id="rId23"/>
+    <hyperlink ref="G12" r:id="rId24"/>
+    <hyperlink ref="G13" r:id="rId25"/>
+    <hyperlink ref="G28" r:id="rId26"/>
+    <hyperlink ref="G17" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 
